--- a/examples/EPPlus多行重复渲染/Template/Template.xlsx
+++ b/examples/EPPlus多行重复渲染/Template/Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4789BAA5-3887-426F-89DC-517211F00B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="多行重复渲染示例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,29 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>姓名：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Gender]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案号：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;[rptStudentInfo]</t>
+  </si>
   <si>
     <t>&lt;[rptStudentInfo]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>姓名：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[Gender]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>档案号：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级：</t>
+    <t>$[Name]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RecordNo]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -50,79 +68,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>联系电话：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[Name]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[RecordNo]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[Phone]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[Email] &gt;[rptStudentInfo]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>$[Phone]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Email]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,12 +134,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -309,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -331,9 +283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -349,7 +298,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,15 +568,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D6"/>
@@ -641,86 +590,81 @@
     <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
